--- a/Alpha/Hotel/bravo.xlsx
+++ b/Alpha/Hotel/bravo.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4D687-9CFB-6C4C-A1BE-916DD1072F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13480" yWindow="-20080" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +19,291 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+  <si>
+    <t>http://localhost:8089/user/login.do</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"admin1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +326,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +609,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="58.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>